--- a/Eksperiment.xlsx
+++ b/Eksperiment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lasse\Desktop\Eksperiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lasse\Documents\GitHub\P2_Application_of_Linear_Algebra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD8DA8B-211F-4E4F-B30F-1342175DA9B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECC4429-F1C8-41DC-BF7B-C5BECF91C39E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{6C3F71C9-FB83-4430-8F6C-B5839D37E22F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="75">
   <si>
     <t>Mikrofoner</t>
   </si>
@@ -246,12 +246,24 @@
   </si>
   <si>
     <t>Forsøg 8</t>
+  </si>
+  <si>
+    <t>B mt 144 hv 538,0275</t>
+  </si>
+  <si>
+    <t>C mt 144 hv 498,0275</t>
+  </si>
+  <si>
+    <t>A mt 178,641 hv 518,0275</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000000E+00"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -325,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -333,6 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +405,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6073140" y="3291840"/>
+          <a:off x="7421880" y="3291840"/>
           <a:ext cx="6462320" cy="3535986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -702,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EBEC3A-3AC1-4203-9048-76166C6D5174}">
-  <dimension ref="B2:AP43"/>
+  <dimension ref="B2:AP47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="E29" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,6 +733,7 @@
     <col min="14" max="14" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.44140625" customWidth="1"/>
     <col min="19" max="19" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
@@ -1339,28 +1353,36 @@
       <c r="P31" t="s">
         <v>38</v>
       </c>
+      <c r="T31" s="7">
+        <f>(776.2/60/2)-(657.7/60)</f>
+        <v>-4.4933333333333341</v>
+      </c>
     </row>
     <row r="32" spans="2:42" x14ac:dyDescent="0.3">
       <c r="P32" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="16:20" x14ac:dyDescent="0.3">
+      <c r="T32">
+        <f>88/60</f>
+        <v>1.4666666666666666</v>
+      </c>
+    </row>
+    <row r="33" spans="14:20" x14ac:dyDescent="0.3">
       <c r="P33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="14:20" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="14:20" x14ac:dyDescent="0.3">
       <c r="P36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="14:20" x14ac:dyDescent="0.3">
       <c r="S38" t="s">
         <v>47</v>
       </c>
@@ -1368,24 +1390,42 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="14:20" x14ac:dyDescent="0.3">
       <c r="P40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="14:20" x14ac:dyDescent="0.3">
       <c r="P41" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="14:20" x14ac:dyDescent="0.3">
       <c r="P42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="14:20" x14ac:dyDescent="0.3">
       <c r="P43" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="14:20" x14ac:dyDescent="0.3">
+      <c r="N45">
+        <v>170.32749999999999</v>
+      </c>
+      <c r="P45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="14:20" x14ac:dyDescent="0.3">
+      <c r="P46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="14:20" x14ac:dyDescent="0.3">
+      <c r="P47" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Eksperiment.xlsx
+++ b/Eksperiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lasse\Documents\GitHub\P2_Application_of_Linear_Algebra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECC4429-F1C8-41DC-BF7B-C5BECF91C39E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BD3FED-77CE-47DD-8354-3EFB57A25637}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{6C3F71C9-FB83-4430-8F6C-B5839D37E22F}"/>
   </bookViews>
@@ -715,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EBEC3A-3AC1-4203-9048-76166C6D5174}">
-  <dimension ref="B2:AP47"/>
+  <dimension ref="B2:AP49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E29" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1354,8 +1354,8 @@
         <v>38</v>
       </c>
       <c r="T31" s="7">
-        <f>(776.2/60/2)-(657.7/60)</f>
-        <v>-4.4933333333333341</v>
+        <f>(776.2/60/2)-(518.0275/60)</f>
+        <v>-2.1654583333333335</v>
       </c>
     </row>
     <row r="32" spans="2:42" x14ac:dyDescent="0.3">
@@ -1422,10 +1422,20 @@
       <c r="P46" t="s">
         <v>73</v>
       </c>
+      <c r="S46">
+        <f>776.2-538.0275</f>
+        <v>238.17250000000001</v>
+      </c>
     </row>
     <row r="47" spans="14:20" x14ac:dyDescent="0.3">
       <c r="P47" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S49">
+        <f>178.641/60</f>
+        <v>2.9773499999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Eksperiment.xlsx
+++ b/Eksperiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lasse\Documents\GitHub\P2_Application_of_Linear_Algebra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BD3FED-77CE-47DD-8354-3EFB57A25637}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45491698-5170-4201-8091-65DDC22B6A29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{6C3F71C9-FB83-4430-8F6C-B5839D37E22F}"/>
   </bookViews>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EBEC3A-3AC1-4203-9048-76166C6D5174}">
   <dimension ref="B2:AP49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
